--- a/medicine/Psychotrope/Jean_d'Aulan/Jean_d'Aulan.xlsx
+++ b/medicine/Psychotrope/Jean_d'Aulan/Jean_d'Aulan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_d%27Aulan</t>
+          <t>Jean_d'Aulan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Harouard de Suarez d'Aulan, dit Jean d'Aulan né à Savasse (Drôme) le 20 novembre 1900[1], est un pilote, homme d'affaires et résistant, tué en combat aérien sur le territoire de la commune de Heidwiller (lieudit : Tagolsheimer Holz) le 8 octobre 1944.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Harouard de Suarez d'Aulan, dit Jean d'Aulan né à Savasse (Drôme) le 20 novembre 1900, est un pilote, homme d'affaires et résistant, tué en combat aérien sur le territoire de la commune de Heidwiller (lieudit : Tagolsheimer Holz) le 8 octobre 1944.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_d%27Aulan</t>
+          <t>Jean_d'Aulan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +525,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Jean d'Aulan est le fils de François Harouard de Suarez d'Aulan et de Madeleine de Geoffre de Chabrignac.
-Orphelin de père à l’âge de 10 ans, Jean, encore mineur en 1918 , s’engage néanmoins peu avant la fin de la Première Guerre Mondiale[2].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean d'Aulan est le fils de François Harouard de Suarez d'Aulan et de Madeleine de Geoffre de Chabrignac.
+Orphelin de père à l’âge de 10 ans, Jean, encore mineur en 1918 , s’engage néanmoins peu avant la fin de la Première Guerre Mondiale.
 Il épouse en 1926 Anne Marie Yolande Kunkelmann (1904-1989, croix de guerre 1939-1945), héritière de la maison de champagne Piper-Heidsieck, qui convola en secondes noces en 1946 avec le général Guy d'Alès (1895-1972).
 Jean d'Aulan et Anne Marie Yolande Kunkelmann ont eu quatre enfants : Ghislaine (Comtesse de Poix), François, Philippe et Catherine (qui épousera en 1958 Claude Taittinger).
-Carrière sportive
-Jean d'Aulan fut champion universitaire de natation et champion d’Europe de plongeon de haut-vol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean_d'Aulan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_d%27Aulan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière sportive</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean d'Aulan fut champion universitaire de natation et champion d’Europe de plongeon de haut-vol.
 Capitaine de l’équipe de France de bobsleigh, il fut quatre fois champion de France. Il participa avec l'équipe de France de bobsleigh au premier championnat du monde en 1930 puis aux épreuves de bobsleigh des Jeux Olympiques d'hiver dès leur première édition (à Chamonix en 1928) jusqu'en 1936.
 Il participa deux fois aux 24 Heures du Mans en automobile et remporta les rallyes aériens d’Égypte en 1935 et d’Allemagne en 1936.
-Seconde guerre mondiale
-Président de la Société des vins de Champagne Piper-Heidsieck à Reims de 1928 à 1943, il cache des armes parachutées d'Angleterre dans les caves pendant l’occupation. Dénoncé à la Gestapo, il parvient à s'échapper et gagne l’Afrique du Nord via l'Espagne. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_d'Aulan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_d%27Aulan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Seconde guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Président de la Société des vins de Champagne Piper-Heidsieck à Reims de 1928 à 1943, il cache des armes parachutées d'Angleterre dans les caves pendant l’occupation. Dénoncé à la Gestapo, il parvient à s'échapper et gagne l’Afrique du Nord via l'Espagne. 
 Il s’engage, en dépit de son âge, dans la célèbre Escadrille La Fayette du Groupe de Chasse II/5, devenant ainsi le plus vieil aviateur de chasse de la Seconde Guerre mondiale (plus âgé de quelques mois et décédé la même année, Antoine de Saint-Exupéry était pilote dans une escadrille principalement dédiée à la reconnaissance).
 Après de nombreuses missions effectuées au-dessus de l’Allemagne, il est abattu en octobre 1944 à bord de son avion Republic P-47 Thunderbolt au-dessus de la forêt de Tagolsheim (Haut-Rhin) par des avions Messerschmitt Bf 109. Il était sous-lieutenant.
 Chevalier de la Légion d'honneur et titulaire de la croix de guerre 1939-1945, Jean d’Aulan, mort pour la France, repose à Reims, au Cimetière du Nord dans le caveau Kunkelmann.
@@ -531,31 +618,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jean_d%27Aulan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_d'Aulan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean_d%27Aulan</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Décorations et mémoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur
  Croix de guerre 1939-1945
